--- a/biology/Botanique/Henri_Duchêne_(paysagiste)/Henri_Duchêne_(paysagiste).xlsx
+++ b/biology/Botanique/Henri_Duchêne_(paysagiste)/Henri_Duchêne_(paysagiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_Duch%C3%AAne_(paysagiste)</t>
+          <t>Henri_Duchêne_(paysagiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Duchêne est un paysagiste français né à Lyon le 26 octobre 1841[1] et mort à Lorient le 26 août 1902[2]. Il est le père d'Achille Duchêne. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Duchêne est un paysagiste français né à Lyon le 26 octobre 1841 et mort à Lorient le 26 août 1902. Il est le père d'Achille Duchêne. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_Duch%C3%AAne_(paysagiste)</t>
+          <t>Henri_Duchêne_(paysagiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Henri Duchêne, diplômé du Conservatoire national des arts et métiers de Paris, passionné d'architecture, fut recruté par la ville de Paris où débutaient les grands travaux dirigés par Adolphe Alphand. Il travailla à la création de projets de squares et de promenade dans Paris et y fit très grande impression.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Duchêne, diplômé du Conservatoire national des arts et métiers de Paris, passionné d'architecture, fut recruté par la ville de Paris où débutaient les grands travaux dirigés par Adolphe Alphand. Il travailla à la création de projets de squares et de promenade dans Paris et y fit très grande impression.
 Introduit par l'architecte Ernest Sanson dans la haute société, il se créa dès 1877 une clientèle prestigieuse parmi les propriétaires des grands domaines. Il put dès lors exercer tout son art et imposer son goût pour le retour à la tradition des jardins et paysages du XVIIe siècle français, en réaction contre la mode des jardins qui avaient sévi en France tout au long du XIXe siècle.
 Toute son œuvre fut consacrée à replacer le jardin français dans sa vraie voie, la voie de la tradition, rendant leurs magnifiques jardins aux anciennes demeures qui en avaient été dépouillées.
 Initiateur du retour du jardin à la française, Henri Duchêne transmit à son fils, Achille, qui rejoignit très tôt l'agence de son père, tout son savoir-faire. 
@@ -522,8 +536,43 @@
 Dévoré par son travail, ses recherches et ses lectures, assidu à exécuter sa tâche pour ses clients qu'il aimait comme des amis, Henri Duchêne se surmena. Frappé d'hémiplégie en 1899, il travailla cependant encore trois ans avant de s'éteindre dans sa maison de campagne de Lorient.
 Le succès du père avait introduit aisément le fils dans le monde de l'art du paysage et de l'architecture des jardins.
 Pendant toute la première moitié du XXe siècle, dans un monde qui évoluait à pas de géant, Achille Duchêne, en pleine maturité, poursuivit une carrière magistrale, amplifiant l'œuvre commencée par son père.
-Quelques parcs de châteaux, jardins &amp; aménagements paysagers
-Aménagement du Champ-de-Mars pour l'Exposition universelle de 1889.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Henri_Duchêne_(paysagiste)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Duch%C3%AAne_(paysagiste)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quelques parcs de châteaux, jardins &amp; aménagements paysagers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aménagement du Champ-de-Mars pour l'Exposition universelle de 1889.
 Château de Baudries, Belgique, 1887
 Château de Beaufossé, Essay, 1892
 Château de Vaux-le-Pénil, pour le banquier Michel Ephrussi, 1892
@@ -535,42 +584,10 @@
 Château de la Jumellière (Maine-et-Loire) : 52 hectares, pour le comte de Maillé, (avec son fils Achille Duchène)
 Château d'Anjou et son parc de 10 hectares (Isère) pour Clément et Alice Jourdan, née Aynard. (avec son fils Achille Duchêne)
 Château de Joyeux  pour Georges et Fernande Meillet-Montessuy, née Eynard. Fernande Meillet-Montessuy était la cousine d'Alice Jourdan et les Meillet-Montessuy rencontrèrent Henri et Achille Duchêne à Anjou, à qui ils demandèrent la création d'un château et d'un parc (1897-1904).
-Château de Suisnes (Seine-et-Marne)[3] : Parc romantique de 17 hectares réalisé avec son fils Achille pour Jacques de Noirmont.
+Château de Suisnes (Seine-et-Marne) : Parc romantique de 17 hectares réalisé avec son fils Achille pour Jacques de Noirmont.
 Château de Chaumont-sur-Loire pour le Prince De Broglie
 Château de Balleroy
 Château du Francport, à Choisy-au-Bac (Oise), pour la famille des Acres de L'Aigle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Henri_Duch%C3%AAne_(paysagiste)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Henri_Duch%C3%AAne_(paysagiste)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hommages</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un square Henri-et-Achille-Duchêne se trouve dans le 14e arrondissement de Paris.
-Une plaque commémorative est apposée 10 avenue de New-York (16e arrondissement de Paris), où il vécut.
-</t>
         </is>
       </c>
     </row>
@@ -580,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Henri_Duch%C3%AAne_(paysagiste)</t>
+          <t>Henri_Duchêne_(paysagiste)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,10 +612,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un square Henri-et-Achille-Duchêne se trouve dans le 14e arrondissement de Paris.
+Une plaque commémorative est apposée 10 avenue de New-York (16e arrondissement de Paris), où il vécut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Duchêne_(paysagiste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Duch%C3%AAne_(paysagiste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fabuleux jardins, le style Duchêne, 15 mars - 24 juin 2002, parc du château de Bagatelle.</t>
         </is>
